--- a/data_year/zb/农业/灌溉、水库和除涝、治水情况.xlsx
+++ b/data_year/zb/农业/灌溉、水库和除涝、治水情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1144 +518,653 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3440</v>
+        <v>4740</v>
       </c>
       <c r="C2" t="n">
-        <v>7883</v>
+        <v>10918</v>
       </c>
       <c r="D2" t="n">
-        <v>746</v>
+        <v>930</v>
       </c>
       <c r="E2" t="n">
-        <v>2704</v>
+        <v>3269</v>
       </c>
       <c r="F2" t="n">
-        <v>39600</v>
+        <v>46831</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>29.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3842</v>
+        <v>5594</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>552</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>638</v>
       </c>
       <c r="K2" t="n">
-        <v>80136</v>
+        <v>84052</v>
       </c>
       <c r="L2" t="n">
-        <v>80960</v>
+        <v>106800</v>
       </c>
       <c r="M2" t="n">
-        <v>5184</v>
+        <v>7162</v>
       </c>
       <c r="N2" t="n">
-        <v>83260</v>
+        <v>87873</v>
       </c>
       <c r="O2" t="n">
-        <v>24493</v>
+        <v>29415</v>
       </c>
       <c r="P2" t="n">
-        <v>16389</v>
+        <v>27314</v>
       </c>
       <c r="Q2" t="n">
-        <v>20989</v>
+        <v>21692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4054</v>
+        <v>4796</v>
       </c>
       <c r="C3" t="n">
-        <v>8617</v>
+        <v>10999</v>
       </c>
       <c r="D3" t="n">
-        <v>758</v>
+        <v>954</v>
       </c>
       <c r="E3" t="n">
-        <v>2736</v>
+        <v>3346</v>
       </c>
       <c r="F3" t="n">
-        <v>40671</v>
+        <v>45956</v>
       </c>
       <c r="G3" t="n">
-        <v>27.34</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3927</v>
+        <v>5602</v>
       </c>
       <c r="I3" t="n">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="J3" t="n">
-        <v>595</v>
+        <v>645</v>
       </c>
       <c r="K3" t="n">
-        <v>81967</v>
+        <v>84692</v>
       </c>
       <c r="L3" t="n">
-        <v>81539.3</v>
+        <v>109663.83</v>
       </c>
       <c r="M3" t="n">
-        <v>5281.34</v>
+        <v>7200.53</v>
       </c>
       <c r="N3" t="n">
-        <v>85136</v>
+        <v>88605</v>
       </c>
       <c r="O3" t="n">
-        <v>24766</v>
+        <v>29748</v>
       </c>
       <c r="P3" t="n">
-        <v>17446.3</v>
+        <v>29179</v>
       </c>
       <c r="Q3" t="n">
-        <v>21021.1</v>
+        <v>21721.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4072</v>
+        <v>5017</v>
       </c>
       <c r="C4" t="n">
-        <v>9158</v>
+        <v>6243</v>
       </c>
       <c r="D4" t="n">
-        <v>767</v>
+        <v>955</v>
       </c>
       <c r="E4" t="n">
-        <v>2781</v>
+        <v>3379</v>
       </c>
       <c r="F4" t="n">
-        <v>42862</v>
+        <v>42597</v>
       </c>
       <c r="G4" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4229</v>
+        <v>5609</v>
       </c>
       <c r="I4" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="J4" t="n">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="K4" t="n">
-        <v>82062</v>
+        <v>85268</v>
       </c>
       <c r="L4" t="n">
-        <v>85410</v>
+        <v>111862.8</v>
       </c>
       <c r="M4" t="n">
-        <v>5595</v>
+        <v>7210.97</v>
       </c>
       <c r="N4" t="n">
-        <v>85288</v>
+        <v>89220</v>
       </c>
       <c r="O4" t="n">
-        <v>25030</v>
+        <v>30087</v>
       </c>
       <c r="P4" t="n">
-        <v>18627</v>
+        <v>31217</v>
       </c>
       <c r="Q4" t="n">
-        <v>21097</v>
+        <v>21857.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4084</v>
+        <v>5010</v>
       </c>
       <c r="C5" t="n">
-        <v>9381</v>
+        <v>6241</v>
       </c>
       <c r="D5" t="n">
-        <v>783</v>
+        <v>1070</v>
       </c>
       <c r="E5" t="n">
-        <v>2827</v>
+        <v>3774</v>
       </c>
       <c r="F5" t="n">
-        <v>43875</v>
+        <v>40317</v>
       </c>
       <c r="G5" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4278</v>
+        <v>6529</v>
       </c>
       <c r="I5" t="n">
-        <v>453</v>
+        <v>687</v>
       </c>
       <c r="J5" t="n">
-        <v>597</v>
+        <v>699</v>
       </c>
       <c r="K5" t="n">
-        <v>81873</v>
+        <v>93260</v>
       </c>
       <c r="L5" t="n">
-        <v>89713.60000000001</v>
+        <v>106891.91</v>
       </c>
       <c r="M5" t="n">
-        <v>5658</v>
+        <v>8298.049999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>85153</v>
+        <v>97721</v>
       </c>
       <c r="O5" t="n">
-        <v>25244</v>
+        <v>30216</v>
       </c>
       <c r="P5" t="n">
-        <v>19443</v>
+        <v>27109</v>
       </c>
       <c r="Q5" t="n">
-        <v>21139</v>
+        <v>21943.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4057</v>
+        <v>5010</v>
       </c>
       <c r="C6" t="n">
-        <v>9714</v>
+        <v>6241</v>
       </c>
       <c r="D6" t="n">
-        <v>796</v>
+        <v>1077</v>
       </c>
       <c r="E6" t="n">
-        <v>2869</v>
+        <v>3799</v>
       </c>
       <c r="F6" t="n">
-        <v>43934</v>
+        <v>42794</v>
       </c>
       <c r="G6" t="n">
-        <v>27.7</v>
+        <v>28.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4147</v>
+        <v>6618</v>
       </c>
       <c r="I6" t="n">
-        <v>460</v>
+        <v>697</v>
       </c>
       <c r="J6" t="n">
-        <v>599</v>
+        <v>701</v>
       </c>
       <c r="K6" t="n">
-        <v>81831</v>
+        <v>93239</v>
       </c>
       <c r="L6" t="n">
-        <v>92004.5</v>
+        <v>111609.31</v>
       </c>
       <c r="M6" t="n">
-        <v>5542</v>
+        <v>8395.629999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>85160</v>
+        <v>97735</v>
       </c>
       <c r="O6" t="n">
-        <v>25506</v>
+        <v>30216</v>
       </c>
       <c r="P6" t="n">
-        <v>20346</v>
+        <v>29019</v>
       </c>
       <c r="Q6" t="n">
-        <v>21198</v>
+        <v>22369.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4080</v>
+        <v>5663</v>
       </c>
       <c r="C7" t="n">
-        <v>10230</v>
+        <v>12024</v>
       </c>
       <c r="D7" t="n">
-        <v>826</v>
+        <v>1068</v>
       </c>
       <c r="E7" t="n">
-        <v>2934</v>
+        <v>3844</v>
       </c>
       <c r="F7" t="n">
-        <v>44120</v>
+        <v>40844</v>
       </c>
       <c r="G7" t="n">
-        <v>27.7</v>
+        <v>29.1417</v>
       </c>
       <c r="H7" t="n">
-        <v>4197</v>
+        <v>6812</v>
       </c>
       <c r="I7" t="n">
-        <v>470</v>
+        <v>707</v>
       </c>
       <c r="J7" t="n">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="K7" t="n">
-        <v>81704</v>
+        <v>93437</v>
       </c>
       <c r="L7" t="n">
-        <v>94650</v>
+        <v>115578</v>
       </c>
       <c r="M7" t="n">
-        <v>5624</v>
+        <v>8581</v>
       </c>
       <c r="N7" t="n">
-        <v>85108</v>
+        <v>97988</v>
       </c>
       <c r="O7" t="n">
-        <v>26419</v>
+        <v>32302</v>
       </c>
       <c r="P7" t="n">
-        <v>21338</v>
+        <v>31060.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>21339</v>
+        <v>22712.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4092</v>
+        <v>5430</v>
       </c>
       <c r="C8" t="n">
-        <v>10520</v>
+        <v>12394</v>
       </c>
       <c r="D8" t="n">
-        <v>851.6</v>
+        <v>1096</v>
       </c>
       <c r="E8" t="n">
-        <v>3000</v>
+        <v>3890</v>
       </c>
       <c r="F8" t="n">
-        <v>45486</v>
+        <v>41087</v>
       </c>
       <c r="G8" t="n">
-        <v>28.1</v>
+        <v>29.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4379</v>
+        <v>7192</v>
       </c>
       <c r="I8" t="n">
-        <v>482</v>
+        <v>721</v>
       </c>
       <c r="J8" t="n">
-        <v>611</v>
+        <v>705</v>
       </c>
       <c r="K8" t="n">
-        <v>82367</v>
+        <v>93850</v>
       </c>
       <c r="L8" t="n">
-        <v>97491</v>
+        <v>120412.29</v>
       </c>
       <c r="M8" t="n">
-        <v>5842</v>
+        <v>8993.18</v>
       </c>
       <c r="N8" t="n">
-        <v>85849</v>
+        <v>98461</v>
       </c>
       <c r="O8" t="n">
-        <v>28021</v>
+        <v>33046</v>
       </c>
       <c r="P8" t="n">
-        <v>22426</v>
+        <v>32847</v>
       </c>
       <c r="Q8" t="n">
-        <v>21376</v>
+        <v>23066.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4149</v>
+        <v>5425</v>
       </c>
       <c r="C9" t="n">
-        <v>10520</v>
+        <v>12457</v>
       </c>
       <c r="D9" t="n">
-        <v>883</v>
+        <v>1117</v>
       </c>
       <c r="E9" t="n">
-        <v>3110</v>
+        <v>3934</v>
       </c>
       <c r="F9" t="n">
-        <v>45518</v>
+        <v>40946</v>
       </c>
       <c r="G9" t="n">
-        <v>28.4</v>
+        <v>30.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4836</v>
+        <v>7210</v>
       </c>
       <c r="I9" t="n">
-        <v>493</v>
+        <v>732</v>
       </c>
       <c r="J9" t="n">
-        <v>625</v>
+        <v>708</v>
       </c>
       <c r="K9" t="n">
-        <v>81809</v>
+        <v>94129</v>
       </c>
       <c r="L9" t="n">
-        <v>99870.96000000001</v>
+        <v>125839</v>
       </c>
       <c r="M9" t="n">
-        <v>6344.52</v>
+        <v>9035</v>
       </c>
       <c r="N9" t="n">
-        <v>85412</v>
+        <v>98795</v>
       </c>
       <c r="O9" t="n">
-        <v>28340</v>
+        <v>33262</v>
       </c>
       <c r="P9" t="n">
-        <v>23489</v>
+        <v>34319</v>
       </c>
       <c r="Q9" t="n">
-        <v>21419.14</v>
+        <v>23824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5517</v>
+        <v>5400.184</v>
       </c>
       <c r="C10" t="n">
-        <v>11207</v>
+        <v>12398.704</v>
       </c>
       <c r="D10" t="n">
-        <v>910</v>
+        <v>1125.66916</v>
       </c>
       <c r="E10" t="n">
-        <v>3181</v>
+        <v>3954</v>
       </c>
       <c r="F10" t="n">
-        <v>45712</v>
+        <v>41409.21</v>
       </c>
       <c r="G10" t="n">
-        <v>28.7</v>
+        <v>31.190724</v>
       </c>
       <c r="H10" t="n">
-        <v>5386</v>
+        <v>7116.685161</v>
       </c>
       <c r="I10" t="n">
-        <v>529</v>
+        <v>736</v>
       </c>
       <c r="J10" t="n">
-        <v>628</v>
+        <v>709.9637814</v>
       </c>
       <c r="K10" t="n">
-        <v>82643</v>
+        <v>94132</v>
       </c>
       <c r="L10" t="n">
-        <v>101587.03</v>
+        <v>131531.63</v>
       </c>
       <c r="M10" t="n">
-        <v>6924.01</v>
+        <v>8952.885702400001</v>
       </c>
       <c r="N10" t="n">
-        <v>86353</v>
+        <v>98822</v>
       </c>
       <c r="O10" t="n">
-        <v>29440</v>
+        <v>33324.085</v>
       </c>
       <c r="P10" t="n">
-        <v>24436</v>
+        <v>36134.723</v>
       </c>
       <c r="Q10" t="n">
-        <v>21424.55</v>
+        <v>24261.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4747</v>
+        <v>5385.677</v>
       </c>
       <c r="C11" t="n">
-        <v>10828</v>
+        <v>12608.528</v>
       </c>
       <c r="D11" t="n">
-        <v>921</v>
+        <v>1126.673791</v>
       </c>
       <c r="E11" t="n">
-        <v>3259</v>
+        <v>3978</v>
       </c>
       <c r="F11" t="n">
-        <v>46547</v>
+        <v>41903.21</v>
       </c>
       <c r="G11" t="n">
-        <v>29.1</v>
+        <v>32.024976</v>
       </c>
       <c r="H11" t="n">
-        <v>5506</v>
+        <v>7149.776201</v>
       </c>
       <c r="I11" t="n">
-        <v>544</v>
+        <v>744</v>
       </c>
       <c r="J11" t="n">
-        <v>636</v>
+        <v>706.1904833999999</v>
       </c>
       <c r="K11" t="n">
-        <v>83348</v>
+        <v>93390</v>
       </c>
       <c r="L11" t="n">
-        <v>104544.89</v>
+        <v>137324.527</v>
       </c>
       <c r="M11" t="n">
-        <v>7063.67</v>
+        <v>8983.2080754</v>
       </c>
       <c r="N11" t="n">
-        <v>87151</v>
+        <v>98112</v>
       </c>
       <c r="O11" t="n">
-        <v>29562</v>
+        <v>33500.549</v>
       </c>
       <c r="P11" t="n">
-        <v>25755</v>
+        <v>37059.312</v>
       </c>
       <c r="Q11" t="n">
-        <v>21584.34</v>
+        <v>24529.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4740</v>
+        <v>5477.547</v>
       </c>
       <c r="C12" t="n">
-        <v>10918</v>
+        <v>12344.145</v>
       </c>
       <c r="D12" t="n">
-        <v>930</v>
+        <v>1179</v>
       </c>
       <c r="E12" t="n">
-        <v>3269</v>
+        <v>4098</v>
       </c>
       <c r="F12" t="n">
-        <v>46831</v>
+        <v>42167.75</v>
       </c>
       <c r="G12" t="n">
-        <v>29.4</v>
+        <v>32.8121</v>
       </c>
       <c r="H12" t="n">
-        <v>5594</v>
+        <v>7410</v>
       </c>
       <c r="I12" t="n">
-        <v>552</v>
+        <v>774</v>
       </c>
       <c r="J12" t="n">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="K12" t="n">
-        <v>84052</v>
+        <v>93694</v>
       </c>
       <c r="L12" t="n">
-        <v>106800</v>
+        <v>143122.106</v>
       </c>
       <c r="M12" t="n">
-        <v>7162</v>
+        <v>9306</v>
       </c>
       <c r="N12" t="n">
-        <v>87873</v>
+        <v>98566</v>
       </c>
       <c r="O12" t="n">
-        <v>29415</v>
+        <v>33637.859</v>
       </c>
       <c r="P12" t="n">
-        <v>27314</v>
+        <v>37795.989</v>
       </c>
       <c r="Q12" t="n">
-        <v>21692</v>
+        <v>24586.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4796</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10999</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>954</v>
+        <v>1197</v>
       </c>
       <c r="E13" t="n">
-        <v>3346</v>
+        <v>4174</v>
       </c>
       <c r="F13" t="n">
-        <v>45956</v>
+        <v>42192</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>33.1048</v>
       </c>
       <c r="H13" t="n">
-        <v>5602</v>
+        <v>7944</v>
       </c>
       <c r="I13" t="n">
-        <v>567</v>
+        <v>805</v>
       </c>
       <c r="J13" t="n">
-        <v>645</v>
+        <v>712</v>
       </c>
       <c r="K13" t="n">
-        <v>84692</v>
+        <v>92057</v>
       </c>
       <c r="L13" t="n">
-        <v>109663.83</v>
+        <v>149552.069</v>
       </c>
       <c r="M13" t="n">
-        <v>7200.53</v>
+        <v>9853</v>
       </c>
       <c r="N13" t="n">
-        <v>88605</v>
-      </c>
-      <c r="O13" t="n">
-        <v>29748</v>
-      </c>
-      <c r="P13" t="n">
-        <v>29179</v>
-      </c>
+        <v>97036</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>21721.64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5017</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6243</v>
-      </c>
-      <c r="D14" t="n">
-        <v>955</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3379</v>
-      </c>
-      <c r="F14" t="n">
-        <v>42597</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5609</v>
-      </c>
-      <c r="I14" t="n">
-        <v>573</v>
-      </c>
-      <c r="J14" t="n">
-        <v>647</v>
-      </c>
-      <c r="K14" t="n">
-        <v>85268</v>
-      </c>
-      <c r="L14" t="n">
-        <v>111862.8</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7210.97</v>
-      </c>
-      <c r="N14" t="n">
-        <v>89220</v>
-      </c>
-      <c r="O14" t="n">
-        <v>30087</v>
-      </c>
-      <c r="P14" t="n">
-        <v>31217</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>21857.35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5010</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6241</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1070</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3774</v>
-      </c>
-      <c r="F15" t="n">
-        <v>40317</v>
-      </c>
-      <c r="G15" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6529</v>
-      </c>
-      <c r="I15" t="n">
-        <v>687</v>
-      </c>
-      <c r="J15" t="n">
-        <v>699</v>
-      </c>
-      <c r="K15" t="n">
-        <v>93260</v>
-      </c>
-      <c r="L15" t="n">
-        <v>106891.91</v>
-      </c>
-      <c r="M15" t="n">
-        <v>8298.049999999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>97721</v>
-      </c>
-      <c r="O15" t="n">
-        <v>30216</v>
-      </c>
-      <c r="P15" t="n">
-        <v>27109</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>21943.09</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5010</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6241</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1077</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3799</v>
-      </c>
-      <c r="F16" t="n">
-        <v>42794</v>
-      </c>
-      <c r="G16" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6618</v>
-      </c>
-      <c r="I16" t="n">
-        <v>697</v>
-      </c>
-      <c r="J16" t="n">
-        <v>701</v>
-      </c>
-      <c r="K16" t="n">
-        <v>93239</v>
-      </c>
-      <c r="L16" t="n">
-        <v>111609.31</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8395.629999999999</v>
-      </c>
-      <c r="N16" t="n">
-        <v>97735</v>
-      </c>
-      <c r="O16" t="n">
-        <v>30216</v>
-      </c>
-      <c r="P16" t="n">
-        <v>29019</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>22369.35</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5663</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12024</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1068</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3844</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40844</v>
-      </c>
-      <c r="G17" t="n">
-        <v>29.1417</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6812</v>
-      </c>
-      <c r="I17" t="n">
-        <v>707</v>
-      </c>
-      <c r="J17" t="n">
-        <v>701</v>
-      </c>
-      <c r="K17" t="n">
-        <v>93437</v>
-      </c>
-      <c r="L17" t="n">
-        <v>115578</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8581</v>
-      </c>
-      <c r="N17" t="n">
-        <v>97988</v>
-      </c>
-      <c r="O17" t="n">
-        <v>32302</v>
-      </c>
-      <c r="P17" t="n">
-        <v>31060.44</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>22712.71</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5430</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12394</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1096</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3890</v>
-      </c>
-      <c r="F18" t="n">
-        <v>41087</v>
-      </c>
-      <c r="G18" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7192</v>
-      </c>
-      <c r="I18" t="n">
-        <v>721</v>
-      </c>
-      <c r="J18" t="n">
-        <v>705</v>
-      </c>
-      <c r="K18" t="n">
-        <v>93850</v>
-      </c>
-      <c r="L18" t="n">
-        <v>120412.29</v>
-      </c>
-      <c r="M18" t="n">
-        <v>8993.18</v>
-      </c>
-      <c r="N18" t="n">
-        <v>98461</v>
-      </c>
-      <c r="O18" t="n">
-        <v>33046</v>
-      </c>
-      <c r="P18" t="n">
-        <v>32847</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>23066.67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5425</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12457</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1117</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3934</v>
-      </c>
-      <c r="F19" t="n">
-        <v>40946</v>
-      </c>
-      <c r="G19" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7210</v>
-      </c>
-      <c r="I19" t="n">
-        <v>732</v>
-      </c>
-      <c r="J19" t="n">
-        <v>708</v>
-      </c>
-      <c r="K19" t="n">
-        <v>94129</v>
-      </c>
-      <c r="L19" t="n">
-        <v>125839</v>
-      </c>
-      <c r="M19" t="n">
-        <v>9035</v>
-      </c>
-      <c r="N19" t="n">
-        <v>98795</v>
-      </c>
-      <c r="O19" t="n">
-        <v>33262</v>
-      </c>
-      <c r="P19" t="n">
-        <v>34319</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>23824</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5400.184</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12398.704</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1125.66916</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3954</v>
-      </c>
-      <c r="F20" t="n">
-        <v>41409.21</v>
-      </c>
-      <c r="G20" t="n">
-        <v>31.190724</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7116.685161</v>
-      </c>
-      <c r="I20" t="n">
-        <v>736</v>
-      </c>
-      <c r="J20" t="n">
-        <v>709.9637814</v>
-      </c>
-      <c r="K20" t="n">
-        <v>94132</v>
-      </c>
-      <c r="L20" t="n">
-        <v>131531.63</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8952.885702400001</v>
-      </c>
-      <c r="N20" t="n">
-        <v>98822</v>
-      </c>
-      <c r="O20" t="n">
-        <v>33324.085</v>
-      </c>
-      <c r="P20" t="n">
-        <v>36134.723</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>24261.74</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5385.677</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12608.528</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1126.673791</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3978</v>
-      </c>
-      <c r="F21" t="n">
-        <v>41903.21</v>
-      </c>
-      <c r="G21" t="n">
-        <v>32.024976</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7149.776201</v>
-      </c>
-      <c r="I21" t="n">
-        <v>744</v>
-      </c>
-      <c r="J21" t="n">
-        <v>706.1904833999999</v>
-      </c>
-      <c r="K21" t="n">
-        <v>93390</v>
-      </c>
-      <c r="L21" t="n">
-        <v>137324.527</v>
-      </c>
-      <c r="M21" t="n">
-        <v>8983.2080754</v>
-      </c>
-      <c r="N21" t="n">
-        <v>98112</v>
-      </c>
-      <c r="O21" t="n">
-        <v>33500.549</v>
-      </c>
-      <c r="P21" t="n">
-        <v>37059.312</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>24529.61</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5477.547</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12344.145</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>42167.75</v>
-      </c>
-      <c r="G22" t="n">
-        <v>32.8121</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>143122.106</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8983.2080754</v>
-      </c>
-      <c r="N22" t="n">
-        <v>98112</v>
-      </c>
-      <c r="O22" t="n">
-        <v>33637.859</v>
-      </c>
-      <c r="P22" t="n">
-        <v>37795.989</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>24586.43</v>
+        <v>24618.74</v>
       </c>
     </row>
   </sheetData>
